--- a/medicine/Psychotrope/Cuvée_de_prestige/Cuvée_de_prestige.xlsx
+++ b/medicine/Psychotrope/Cuvée_de_prestige/Cuvée_de_prestige.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cuv%C3%A9e_de_prestige</t>
+          <t>Cuvée_de_prestige</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une cuvée de prestige, ou cuvée spéciale, est le vin le plus prestigieux d'une maison de Champagne. Les bouteilles de champagne vendues en cuvée de prestige sont assemblées avec plus de soin que les autres produits. C’est un champagne qui correspond au premier jus tiré (tête de cuvée).
 Bien souvent, seuls les cépages chardonnay et pinot noir sont utilisés. Parfois la cuvée de prestige fait appel à une technique particulière, comme l'assemblage de champagne à partir de vin de raisins noirs, comme le blanc de noirs. Cela peut également être un blanc de blancs. Une cuvée de prestige peut aussi être un rosé. Il peut s'agir d'un millésime, avec des raisins récoltés la même année. Cependant, chaque maison de champagne fait ses propres choix. Les grandes caves aiment utiliser leurs réserves importantes et précieuses des bonnes années pour donner à leur cuvée le prestige la qualité recherchée. Parfois, il s'agit de vins provenant uniquement de communes de grands crus ou même d'un seul vignoble.
